--- a/publication/results/fit_plane/idpt_cm0.5_bin_r-z_rmse-z.xlsx
+++ b/publication/results/fit_plane/idpt_cm0.5_bin_r-z_rmse-z.xlsx
@@ -500,31 +500,31 @@
         <v>42</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9031694553093647</v>
+        <v>0.9031694553093642</v>
       </c>
       <c r="C2" t="n">
         <v>-48.09999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>93.30490209099466</v>
+        <v>93.30490209115131</v>
       </c>
       <c r="E2" t="n">
-        <v>-47.87064025516236</v>
+        <v>-47.87064025350536</v>
       </c>
       <c r="F2" t="n">
-        <v>-47.9073647094981</v>
+        <v>-47.90736471173184</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03672445433574604</v>
+        <v>0.03672445822647276</v>
       </c>
       <c r="H2" t="n">
-        <v>0.4869747078260671</v>
+        <v>0.4869747050627827</v>
       </c>
       <c r="I2" t="n">
-        <v>149.2878433455915</v>
+        <v>149.2878433458421</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6080922964202353</v>
+        <v>0.6080922954607654</v>
       </c>
       <c r="K2" t="n">
         <v>150</v>
@@ -541,31 +541,31 @@
         <v>43</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9363323668300554</v>
+        <v>0.9363323668300573</v>
       </c>
       <c r="C3" t="n">
         <v>-43.09999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>92.77428905763541</v>
+        <v>92.77428905753388</v>
       </c>
       <c r="E3" t="n">
-        <v>-43.25707837434318</v>
+        <v>-43.25707837679298</v>
       </c>
       <c r="F3" t="n">
-        <v>-43.15829566121054</v>
+        <v>-43.15829565740586</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.09878271313263542</v>
+        <v>-0.09878271938711869</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3331254443800137</v>
+        <v>0.3331254462797526</v>
       </c>
       <c r="I3" t="n">
-        <v>148.4388624922167</v>
+        <v>148.4388624920542</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4464847426073525</v>
+        <v>0.4464847444915628</v>
       </c>
       <c r="K3" t="n">
         <v>150</v>
@@ -582,31 +582,31 @@
         <v>44</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9573055830619398</v>
+        <v>0.9573055830619394</v>
       </c>
       <c r="C4" t="n">
         <v>-38.09999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>93.33357546033902</v>
+        <v>93.33357545959078</v>
       </c>
       <c r="E4" t="n">
-        <v>-37.89498644403328</v>
+        <v>-37.89498644436674</v>
       </c>
       <c r="F4" t="n">
-        <v>-37.75910634568917</v>
+        <v>-37.75910634521048</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1358800983441074</v>
+        <v>-0.1358800991562667</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4093453104267668</v>
+        <v>0.4093453108096749</v>
       </c>
       <c r="I4" t="n">
-        <v>149.3337207365424</v>
+        <v>149.3337207353453</v>
       </c>
       <c r="J4" t="n">
-        <v>0.5118684697870526</v>
+        <v>0.5118684700581042</v>
       </c>
       <c r="K4" t="n">
         <v>150</v>
@@ -623,31 +623,31 @@
         <v>45</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9689386457804987</v>
+        <v>0.9689386457804988</v>
       </c>
       <c r="C5" t="n">
         <v>-33.09999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>93.31151578222796</v>
+        <v>93.31151578268778</v>
       </c>
       <c r="E5" t="n">
-        <v>-33.11760957524934</v>
+        <v>-33.11760923742018</v>
       </c>
       <c r="F5" t="n">
-        <v>-33.05534743465702</v>
+        <v>-33.05534790511612</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.06226214059231866</v>
+        <v>-0.0622613323040518</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2174469719616206</v>
+        <v>0.2174467544804998</v>
       </c>
       <c r="I5" t="n">
-        <v>149.2984252515648</v>
+        <v>149.2984252523005</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2909100468252822</v>
+        <v>0.2909100257665806</v>
       </c>
       <c r="K5" t="n">
         <v>150</v>
@@ -670,25 +670,25 @@
         <v>-28.09999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>93.30157354948872</v>
+        <v>93.30157354946238</v>
       </c>
       <c r="E6" t="n">
-        <v>-28.54375149958567</v>
+        <v>-28.54375071808594</v>
       </c>
       <c r="F6" t="n">
-        <v>-28.51472144094508</v>
+        <v>-28.51472253643639</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.02903005864059898</v>
+        <v>-0.02902818164955073</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1778531936306223</v>
+        <v>0.1778529049087287</v>
       </c>
       <c r="I6" t="n">
-        <v>149.282517679182</v>
+        <v>149.2825176791398</v>
       </c>
       <c r="J6" t="n">
-        <v>0.244462515383787</v>
+        <v>0.2444626192770623</v>
       </c>
       <c r="K6" t="n">
         <v>150</v>
@@ -705,31 +705,31 @@
         <v>47</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9832878008450039</v>
+        <v>0.9832878008450041</v>
       </c>
       <c r="C7" t="n">
         <v>-23.09999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>93.21611426268863</v>
+        <v>93.21611426270898</v>
       </c>
       <c r="E7" t="n">
-        <v>-23.0564636871764</v>
+        <v>-23.05646337428842</v>
       </c>
       <c r="F7" t="n">
-        <v>-22.99373114396941</v>
+        <v>-22.99373158938047</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.06273254320699279</v>
+        <v>-0.06273178490795484</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1550859064820891</v>
+        <v>0.1550856827113472</v>
       </c>
       <c r="I7" t="n">
-        <v>149.1457828203018</v>
+        <v>149.1457828203344</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1882303165026819</v>
+        <v>0.188230288477316</v>
       </c>
       <c r="K7" t="n">
         <v>150</v>
@@ -746,31 +746,31 @@
         <v>48</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9844128345596416</v>
+        <v>0.9844128345596418</v>
       </c>
       <c r="C8" t="n">
         <v>-18.09999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>92.7625796072027</v>
+        <v>92.76257960713799</v>
       </c>
       <c r="E8" t="n">
-        <v>-18.17112851657821</v>
+        <v>-18.17112842779365</v>
       </c>
       <c r="F8" t="n">
-        <v>-18.15836280774548</v>
+        <v>-18.15836302628615</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.012765708832728</v>
+        <v>-0.01276540150749934</v>
       </c>
       <c r="H8" t="n">
-        <v>0.156285939619154</v>
+        <v>0.1562856318287959</v>
       </c>
       <c r="I8" t="n">
-        <v>148.4201273715243</v>
+        <v>148.4201273714208</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1959409097756049</v>
+        <v>0.195940734317593</v>
       </c>
       <c r="K8" t="n">
         <v>150</v>
@@ -793,25 +793,25 @@
         <v>-13.1</v>
       </c>
       <c r="D9" t="n">
-        <v>91.94067107469647</v>
+        <v>91.94067107468643</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.49092781230757</v>
+        <v>-13.49092779952961</v>
       </c>
       <c r="F9" t="n">
-        <v>-13.41383581791434</v>
+        <v>-13.41383585144951</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.07709199439323293</v>
+        <v>-0.07709194808010389</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1712020875294284</v>
+        <v>0.1712020597834639</v>
       </c>
       <c r="I9" t="n">
-        <v>147.1050737195144</v>
+        <v>147.1050737194983</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2819080338669097</v>
+        <v>0.2819080309368844</v>
       </c>
       <c r="K9" t="n">
         <v>150</v>
@@ -828,31 +828,31 @@
         <v>50</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9767894133164194</v>
+        <v>0.9767894133164197</v>
       </c>
       <c r="C10" t="n">
         <v>-8.099999999999994</v>
       </c>
       <c r="D10" t="n">
-        <v>89.54034587696931</v>
+        <v>89.54034587688855</v>
       </c>
       <c r="E10" t="n">
-        <v>-8.268535857240023</v>
+        <v>-8.26853562568315</v>
       </c>
       <c r="F10" t="n">
-        <v>-8.132070046150696</v>
+        <v>-8.132070403520608</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.136465811089327</v>
+        <v>-0.1364652221625424</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1737553693232142</v>
+        <v>0.1737550342987718</v>
       </c>
       <c r="I10" t="n">
-        <v>143.2645534031509</v>
+        <v>143.2645534030217</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1871863082929257</v>
+        <v>0.1871859470227847</v>
       </c>
       <c r="K10" t="n">
         <v>150</v>
@@ -869,31 +869,31 @@
         <v>51</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9516069153524748</v>
+        <v>0.951606915352475</v>
       </c>
       <c r="C11" t="n">
         <v>-3.099999999999994</v>
       </c>
       <c r="D11" t="n">
-        <v>116.0191051756658</v>
+        <v>116.0191051756632</v>
       </c>
       <c r="E11" t="n">
-        <v>-4.107843996508588</v>
+        <v>-4.10784399318318</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.855729005911104</v>
+        <v>-3.855729007271213</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2521149905974845</v>
+        <v>-0.2521149859119677</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3560891746382555</v>
+        <v>0.3560891745650074</v>
       </c>
       <c r="I11" t="n">
-        <v>185.6305682810653</v>
+        <v>185.6305682810611</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3700928778975827</v>
+        <v>0.3700928760972906</v>
       </c>
       <c r="K11" t="n">
         <v>150</v>
@@ -916,25 +916,25 @@
         <v>1.900000000000006</v>
       </c>
       <c r="D12" t="n">
-        <v>92.084498331655</v>
+        <v>92.08449833165983</v>
       </c>
       <c r="E12" t="n">
-        <v>2.628237950314167</v>
+        <v>2.628237942582891</v>
       </c>
       <c r="F12" t="n">
-        <v>2.717366122088679</v>
+        <v>2.717366136845475</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.08912817177451215</v>
+        <v>-0.08912819426258424</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6501420097728138</v>
+        <v>0.6501420054007541</v>
       </c>
       <c r="I12" t="n">
-        <v>147.335197330648</v>
+        <v>147.3351973306557</v>
       </c>
       <c r="J12" t="n">
-        <v>0.783073686962084</v>
+        <v>0.783073695785798</v>
       </c>
       <c r="K12" t="n">
         <v>150</v>
@@ -951,31 +951,31 @@
         <v>53</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9769698966491429</v>
+        <v>0.976969896649143</v>
       </c>
       <c r="C13" t="n">
         <v>6.900000000000007</v>
       </c>
       <c r="D13" t="n">
-        <v>92.56840196690884</v>
+        <v>92.56840196688299</v>
       </c>
       <c r="E13" t="n">
-        <v>6.75019565668734</v>
+        <v>6.750195580366971</v>
       </c>
       <c r="F13" t="n">
-        <v>6.672861391307798</v>
+        <v>6.672861462793517</v>
       </c>
       <c r="G13" t="n">
-        <v>0.07733426537954122</v>
+        <v>0.07733411757345394</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1102650355524329</v>
+        <v>0.1102649162524738</v>
       </c>
       <c r="I13" t="n">
-        <v>148.1094431470542</v>
+        <v>148.1094431470128</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1364845298460894</v>
+        <v>0.1364844453692345</v>
       </c>
       <c r="K13" t="n">
         <v>150</v>
@@ -998,25 +998,25 @@
         <v>11.90000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>93.15478286020418</v>
+        <v>93.1547828601194</v>
       </c>
       <c r="E14" t="n">
-        <v>12.16514821994624</v>
+        <v>12.16514814324228</v>
       </c>
       <c r="F14" t="n">
-        <v>12.1118141344357</v>
+        <v>12.11181423467776</v>
       </c>
       <c r="G14" t="n">
-        <v>0.05333408551053251</v>
+        <v>0.05333390856452374</v>
       </c>
       <c r="H14" t="n">
-        <v>0.08095294800819695</v>
+        <v>0.0809528220095386</v>
       </c>
       <c r="I14" t="n">
-        <v>149.0476525763267</v>
+        <v>149.047652576191</v>
       </c>
       <c r="J14" t="n">
-        <v>0.09670032688386769</v>
+        <v>0.09670015522706826</v>
       </c>
       <c r="K14" t="n">
         <v>150</v>
@@ -1039,25 +1039,25 @@
         <v>16.90000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>93.13536876312685</v>
+        <v>93.13536876314565</v>
       </c>
       <c r="E15" t="n">
-        <v>16.87771445484032</v>
+        <v>16.87771461899863</v>
       </c>
       <c r="F15" t="n">
-        <v>16.84102386771804</v>
+        <v>16.8410236333741</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0366905871222812</v>
+        <v>0.03669098562452901</v>
       </c>
       <c r="H15" t="n">
-        <v>0.08205115016570827</v>
+        <v>0.08205140416531938</v>
       </c>
       <c r="I15" t="n">
-        <v>149.0165900210029</v>
+        <v>149.016590021033</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1024495839653662</v>
+        <v>0.1024499980663181</v>
       </c>
       <c r="K15" t="n">
         <v>150</v>
@@ -1080,25 +1080,25 @@
         <v>21.90000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>93.14955065521475</v>
+        <v>93.14955065522763</v>
       </c>
       <c r="E16" t="n">
-        <v>22.00611306083299</v>
+        <v>22.00611299868193</v>
       </c>
       <c r="F16" t="n">
-        <v>21.97971473642145</v>
+        <v>21.9797148253327</v>
       </c>
       <c r="G16" t="n">
-        <v>0.02639832441153321</v>
+        <v>0.0263981733492255</v>
       </c>
       <c r="H16" t="n">
-        <v>0.09369840148944984</v>
+        <v>0.09369838814790508</v>
       </c>
       <c r="I16" t="n">
-        <v>149.0392810483436</v>
+        <v>149.0392810483642</v>
       </c>
       <c r="J16" t="n">
-        <v>0.13709121749969</v>
+        <v>0.1370911692634605</v>
       </c>
       <c r="K16" t="n">
         <v>150</v>
@@ -1115,31 +1115,31 @@
         <v>57</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9814898069417913</v>
+        <v>0.9814898069417918</v>
       </c>
       <c r="C17" t="n">
         <v>26.90000000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>93.20473472100504</v>
+        <v>93.20473472088001</v>
       </c>
       <c r="E17" t="n">
-        <v>27.72334703413437</v>
+        <v>27.72334703419317</v>
       </c>
       <c r="F17" t="n">
-        <v>27.69131653534462</v>
+        <v>27.69131653527204</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03203049878975215</v>
+        <v>0.03203049892112822</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1157736375071237</v>
+        <v>0.115773637521169</v>
       </c>
       <c r="I17" t="n">
-        <v>149.1275755536081</v>
+        <v>149.127575553408</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1697682619903477</v>
+        <v>0.1697682620070868</v>
       </c>
       <c r="K17" t="n">
         <v>150</v>
@@ -1156,31 +1156,31 @@
         <v>58</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9741205122009921</v>
+        <v>0.9741205122009929</v>
       </c>
       <c r="C18" t="n">
         <v>31.90000000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>93.20284399722745</v>
+        <v>93.20284399716633</v>
       </c>
       <c r="E18" t="n">
-        <v>32.5748677168145</v>
+        <v>32.57486820854706</v>
       </c>
       <c r="F18" t="n">
-        <v>32.51045461227639</v>
+        <v>32.51045391678341</v>
       </c>
       <c r="G18" t="n">
-        <v>0.06441310453810241</v>
+        <v>0.06441429176364744</v>
       </c>
       <c r="H18" t="n">
-        <v>0.142866651332111</v>
+        <v>0.1428675983590162</v>
       </c>
       <c r="I18" t="n">
-        <v>149.1245503955639</v>
+        <v>149.1245503954661</v>
       </c>
       <c r="J18" t="n">
-        <v>0.175788491865712</v>
+        <v>0.1757893787291502</v>
       </c>
       <c r="K18" t="n">
         <v>150</v>
@@ -1197,31 +1197,31 @@
         <v>59</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9630893707370028</v>
+        <v>0.9630893707370043</v>
       </c>
       <c r="C19" t="n">
         <v>36.90000000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>93.17414847561422</v>
+        <v>93.17414847581017</v>
       </c>
       <c r="E19" t="n">
-        <v>37.60216765718021</v>
+        <v>37.60216760149365</v>
       </c>
       <c r="F19" t="n">
-        <v>37.56141305026267</v>
+        <v>37.56141312422948</v>
       </c>
       <c r="G19" t="n">
-        <v>0.04075460691754228</v>
+        <v>0.04075447726416742</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1706824873427136</v>
+        <v>0.1706824266478764</v>
       </c>
       <c r="I19" t="n">
-        <v>149.0786375609828</v>
+        <v>149.0786375612963</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2187408948915699</v>
+        <v>0.2187408328093419</v>
       </c>
       <c r="K19" t="n">
         <v>150</v>
@@ -1238,31 +1238,31 @@
         <v>60</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9481543443077085</v>
+        <v>0.9481543443077105</v>
       </c>
       <c r="C20" t="n">
         <v>41.90000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>93.14694955533989</v>
+        <v>93.14694955550672</v>
       </c>
       <c r="E20" t="n">
-        <v>42.52202775999275</v>
+        <v>42.52202847240233</v>
       </c>
       <c r="F20" t="n">
-        <v>42.39430797998489</v>
+        <v>42.39430697386551</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1277197800078617</v>
+        <v>0.1277214985368151</v>
       </c>
       <c r="H20" t="n">
-        <v>0.236485313158315</v>
+        <v>0.2364867160604431</v>
       </c>
       <c r="I20" t="n">
-        <v>149.0351192885438</v>
+        <v>149.0351192888108</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2956536424936125</v>
+        <v>0.295655142265661</v>
       </c>
       <c r="K20" t="n">
         <v>150</v>
@@ -1279,31 +1279,31 @@
         <v>61</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9172692916494711</v>
+        <v>0.9172692916494719</v>
       </c>
       <c r="C21" t="n">
         <v>46.90000000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>93.15955094222689</v>
+        <v>93.15955094222214</v>
       </c>
       <c r="E21" t="n">
-        <v>47.79597157394646</v>
+        <v>47.79597157408543</v>
       </c>
       <c r="F21" t="n">
-        <v>47.70556891856589</v>
+        <v>47.70556891833386</v>
       </c>
       <c r="G21" t="n">
-        <v>0.09040265538056631</v>
+        <v>0.09040265575157254</v>
       </c>
       <c r="H21" t="n">
-        <v>0.352298115900042</v>
+        <v>0.3522981159804155</v>
       </c>
       <c r="I21" t="n">
-        <v>149.055281507563</v>
+        <v>149.0552815075554</v>
       </c>
       <c r="J21" t="n">
-        <v>0.4407290038108496</v>
+        <v>0.4407290038809606</v>
       </c>
       <c r="K21" t="n">
         <v>150</v>
@@ -1320,31 +1320,31 @@
         <v>62</v>
       </c>
       <c r="B22" t="n">
-        <v>0.8666223389210832</v>
+        <v>0.8666223389210875</v>
       </c>
       <c r="C22" t="n">
         <v>51.90000000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>93.13988673551106</v>
+        <v>93.13988673550568</v>
       </c>
       <c r="E22" t="n">
-        <v>53.33712170555565</v>
+        <v>53.33712170042129</v>
       </c>
       <c r="F22" t="n">
-        <v>53.26584815141521</v>
+        <v>53.26584815899618</v>
       </c>
       <c r="G22" t="n">
-        <v>0.07127355414043786</v>
+        <v>0.07127354142510851</v>
       </c>
       <c r="H22" t="n">
-        <v>0.492908600740154</v>
+        <v>0.4929085911818642</v>
       </c>
       <c r="I22" t="n">
-        <v>149.0238187768177</v>
+        <v>149.0238187768091</v>
       </c>
       <c r="J22" t="n">
-        <v>0.5987611270475725</v>
+        <v>0.5987611199218233</v>
       </c>
       <c r="K22" t="n">
         <v>150</v>
@@ -1361,31 +1361,31 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.8915527531498194</v>
+        <v>0.8915527531498199</v>
       </c>
       <c r="C23" t="n">
         <v>-48.09999999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>192.8668968596303</v>
+        <v>192.8668968596688</v>
       </c>
       <c r="E23" t="n">
-        <v>-47.93461102435552</v>
+        <v>-47.93461102396683</v>
       </c>
       <c r="F23" t="n">
-        <v>-47.9073647094981</v>
+        <v>-47.90736471173184</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.02724631485741922</v>
+        <v>-0.02724631223499493</v>
       </c>
       <c r="H23" t="n">
-        <v>0.5377379338138463</v>
+        <v>0.537737933139976</v>
       </c>
       <c r="I23" t="n">
-        <v>308.5870349754085</v>
+        <v>308.5870349754701</v>
       </c>
       <c r="J23" t="n">
-        <v>0.6448796728367192</v>
+        <v>0.6448796709802084</v>
       </c>
       <c r="K23" t="n">
         <v>300</v>
@@ -1402,31 +1402,31 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9252411134718925</v>
+        <v>0.9252411134718921</v>
       </c>
       <c r="C24" t="n">
         <v>-43.09999999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>192.8543343584075</v>
+        <v>192.8543343584377</v>
       </c>
       <c r="E24" t="n">
-        <v>-43.12404130792132</v>
+        <v>-43.1240413086983</v>
       </c>
       <c r="F24" t="n">
-        <v>-43.15829566121054</v>
+        <v>-43.15829565740586</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03425435328922983</v>
+        <v>0.03425434870755847</v>
       </c>
       <c r="H24" t="n">
-        <v>0.4179405616036357</v>
+        <v>0.4179405624211969</v>
       </c>
       <c r="I24" t="n">
-        <v>308.566934973452</v>
+        <v>308.5669349735003</v>
       </c>
       <c r="J24" t="n">
-        <v>0.5453479559458893</v>
+        <v>0.5453479566256806</v>
       </c>
       <c r="K24" t="n">
         <v>300</v>
@@ -1443,31 +1443,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9509430623369415</v>
+        <v>0.950943062336942</v>
       </c>
       <c r="C25" t="n">
         <v>-38.09999999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>192.8665947780908</v>
+        <v>192.8665947781935</v>
       </c>
       <c r="E25" t="n">
-        <v>-37.74372593340625</v>
+        <v>-37.74372593347289</v>
       </c>
       <c r="F25" t="n">
-        <v>-37.75910634568917</v>
+        <v>-37.75910634521048</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01538041228291607</v>
+        <v>0.01538041173758663</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3536491091433272</v>
+        <v>0.353649109258764</v>
       </c>
       <c r="I25" t="n">
-        <v>308.5865516449453</v>
+        <v>308.5865516451096</v>
       </c>
       <c r="J25" t="n">
-        <v>0.4424717631922239</v>
+        <v>0.4424717635216135</v>
       </c>
       <c r="K25" t="n">
         <v>300</v>
@@ -1484,31 +1484,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.965523086910847</v>
+        <v>0.9655230869108474</v>
       </c>
       <c r="C26" t="n">
         <v>-33.09999999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>192.8727469193159</v>
+        <v>192.8727469190917</v>
       </c>
       <c r="E26" t="n">
-        <v>-33.0525012625673</v>
+        <v>-33.05250118536144</v>
       </c>
       <c r="F26" t="n">
-        <v>-33.05534743465702</v>
+        <v>-33.05534790511612</v>
       </c>
       <c r="G26" t="n">
-        <v>0.002846172089716801</v>
+        <v>0.002846719754681715</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2088205486795904</v>
+        <v>0.2088211970031122</v>
       </c>
       <c r="I26" t="n">
-        <v>308.5963950709055</v>
+        <v>308.5963950705467</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2618033960268281</v>
+        <v>0.2618036434869869</v>
       </c>
       <c r="K26" t="n">
         <v>300</v>
@@ -1525,31 +1525,31 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9762366841143045</v>
+        <v>0.9762366841143051</v>
       </c>
       <c r="C27" t="n">
         <v>-28.09999999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>192.8770748081343</v>
+        <v>192.8770748079102</v>
       </c>
       <c r="E27" t="n">
-        <v>-28.51815552755223</v>
+        <v>-28.51815534214828</v>
       </c>
       <c r="F27" t="n">
-        <v>-28.51472144094508</v>
+        <v>-28.51472253643639</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.003434086607148777</v>
+        <v>-0.003432805711887683</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1906266183875264</v>
+        <v>0.1906267064425936</v>
       </c>
       <c r="I27" t="n">
-        <v>308.603319693015</v>
+        <v>308.6033196926564</v>
       </c>
       <c r="J27" t="n">
-        <v>0.2277453377565894</v>
+        <v>0.2277454336204829</v>
       </c>
       <c r="K27" t="n">
         <v>300</v>
@@ -1566,31 +1566,31 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9825975625350751</v>
+        <v>0.9825975625350754</v>
       </c>
       <c r="C28" t="n">
         <v>-23.09999999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>192.864010429645</v>
+        <v>192.8640104296373</v>
       </c>
       <c r="E28" t="n">
-        <v>-22.99496722608196</v>
+        <v>-22.99496715385154</v>
       </c>
       <c r="F28" t="n">
-        <v>-22.99373114396941</v>
+        <v>-22.99373158938047</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.001236082112555358</v>
+        <v>-0.001235564471068916</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1817004522035833</v>
+        <v>0.1817007629816923</v>
       </c>
       <c r="I28" t="n">
-        <v>308.582416687432</v>
+        <v>308.5824166874196</v>
       </c>
       <c r="J28" t="n">
-        <v>0.2359362398612993</v>
+        <v>0.2359366974351244</v>
       </c>
       <c r="K28" t="n">
         <v>300</v>
@@ -1607,31 +1607,31 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9837636240663274</v>
+        <v>0.9837636240663278</v>
       </c>
       <c r="C29" t="n">
         <v>-18.09999999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>194.2280834290589</v>
+        <v>194.2280834289643</v>
       </c>
       <c r="E29" t="n">
-        <v>-18.18553226500766</v>
+        <v>-18.18553230355366</v>
       </c>
       <c r="F29" t="n">
-        <v>-18.15836280774548</v>
+        <v>-18.15836302628615</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.02716945726217562</v>
+        <v>-0.02716927726750601</v>
       </c>
       <c r="H29" t="n">
-        <v>0.253330597206452</v>
+        <v>0.2533305208936216</v>
       </c>
       <c r="I29" t="n">
-        <v>310.7649334864943</v>
+        <v>310.7649334863429</v>
       </c>
       <c r="J29" t="n">
-        <v>0.3353548546705796</v>
+        <v>0.3353550100987893</v>
       </c>
       <c r="K29" t="n">
         <v>300</v>
@@ -1648,31 +1648,31 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9819803884808185</v>
+        <v>0.9819803884808186</v>
       </c>
       <c r="C30" t="n">
         <v>-13.09999999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>196.3494925184019</v>
+        <v>196.3494925184646</v>
       </c>
       <c r="E30" t="n">
-        <v>-13.47947945838052</v>
+        <v>-13.47947948729157</v>
       </c>
       <c r="F30" t="n">
-        <v>-13.41383581791434</v>
+        <v>-13.4138358514495</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.06564364046618784</v>
+        <v>-0.0656436358420648</v>
       </c>
       <c r="H30" t="n">
-        <v>0.2650993394851204</v>
+        <v>0.2650993297959253</v>
       </c>
       <c r="I30" t="n">
-        <v>314.1591880294431</v>
+        <v>314.1591880295434</v>
       </c>
       <c r="J30" t="n">
-        <v>0.3729408322557</v>
+        <v>0.3729408348267291</v>
       </c>
       <c r="K30" t="n">
         <v>300</v>
@@ -1695,25 +1695,25 @@
         <v>-8.099999999999994</v>
       </c>
       <c r="D31" t="n">
-        <v>196.1472493510896</v>
+        <v>196.1472493511257</v>
       </c>
       <c r="E31" t="n">
-        <v>-8.134184847006457</v>
+        <v>-8.134185317781808</v>
       </c>
       <c r="F31" t="n">
-        <v>-8.132070046150696</v>
+        <v>-8.132070403520608</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.002114800855761506</v>
+        <v>-0.002114914261200516</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1599221209747485</v>
+        <v>0.1599219460233708</v>
       </c>
       <c r="I31" t="n">
-        <v>313.8355989617435</v>
+        <v>313.8355989618011</v>
       </c>
       <c r="J31" t="n">
-        <v>0.2118729293130122</v>
+        <v>0.2118727016070034</v>
       </c>
       <c r="K31" t="n">
         <v>300</v>
@@ -1730,31 +1730,31 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9471045725109226</v>
+        <v>0.9471045725109227</v>
       </c>
       <c r="C32" t="n">
         <v>-3.099999999999994</v>
       </c>
       <c r="D32" t="n">
-        <v>187.185330390978</v>
+        <v>187.1853303909726</v>
       </c>
       <c r="E32" t="n">
-        <v>-3.982474465523387</v>
+        <v>-3.982474466712142</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.855729005911104</v>
+        <v>-3.855729007271213</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.1267454596122823</v>
+        <v>-0.1267454594409288</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1975958907021722</v>
+        <v>0.1975958899503505</v>
       </c>
       <c r="I32" t="n">
-        <v>299.4965286255649</v>
+        <v>299.4965286255562</v>
       </c>
       <c r="J32" t="n">
-        <v>0.2481057598329694</v>
+        <v>0.2481057592983729</v>
       </c>
       <c r="K32" t="n">
         <v>300</v>
@@ -1771,31 +1771,31 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9611599769315875</v>
+        <v>0.9611599769315877</v>
       </c>
       <c r="C33" t="n">
         <v>1.900000000000006</v>
       </c>
       <c r="D33" t="n">
-        <v>191.9037522554377</v>
+        <v>191.9037522554252</v>
       </c>
       <c r="E33" t="n">
-        <v>2.759656487137277</v>
+        <v>2.759656484409331</v>
       </c>
       <c r="F33" t="n">
-        <v>2.717366122088679</v>
+        <v>2.717366136845475</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04229036504859739</v>
+        <v>0.04229034756385607</v>
       </c>
       <c r="H33" t="n">
-        <v>0.5947600689152287</v>
+        <v>0.5947600344216852</v>
       </c>
       <c r="I33" t="n">
-        <v>307.0460036087003</v>
+        <v>307.0460036086803</v>
       </c>
       <c r="J33" t="n">
-        <v>0.8347847336915182</v>
+        <v>0.8347847295377755</v>
       </c>
       <c r="K33" t="n">
         <v>300</v>
@@ -1812,31 +1812,31 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.977918628426039</v>
+        <v>0.9779186284260392</v>
       </c>
       <c r="C34" t="n">
         <v>6.900000000000006</v>
       </c>
       <c r="D34" t="n">
-        <v>195.1834125422602</v>
+        <v>195.1834125422658</v>
       </c>
       <c r="E34" t="n">
-        <v>6.669587562042893</v>
+        <v>6.669587530404065</v>
       </c>
       <c r="F34" t="n">
-        <v>6.672861391307798</v>
+        <v>6.672861462793517</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.003273829264904425</v>
+        <v>-0.003273932389451807</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1147082801478441</v>
+        <v>0.1147081606368513</v>
       </c>
       <c r="I34" t="n">
-        <v>312.2934600676163</v>
+        <v>312.2934600676253</v>
       </c>
       <c r="J34" t="n">
-        <v>0.1665380040543623</v>
+        <v>0.1665379586691179</v>
       </c>
       <c r="K34" t="n">
         <v>300</v>
@@ -1853,31 +1853,31 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9893457461426297</v>
+        <v>0.9893457461426299</v>
       </c>
       <c r="C35" t="n">
         <v>11.90000000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>193.8671677042773</v>
+        <v>193.8671677042732</v>
       </c>
       <c r="E35" t="n">
-        <v>12.11794269332896</v>
+        <v>12.11794266267641</v>
       </c>
       <c r="F35" t="n">
-        <v>12.1118141344357</v>
+        <v>12.11181423467776</v>
       </c>
       <c r="G35" t="n">
-        <v>0.006128558893252209</v>
+        <v>0.006128427998651084</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0850742571997936</v>
+        <v>0.08507421652417495</v>
       </c>
       <c r="I35" t="n">
-        <v>310.1874683268438</v>
+        <v>310.1874683268372</v>
       </c>
       <c r="J35" t="n">
-        <v>0.1212020687892459</v>
+        <v>0.1212020325659187</v>
       </c>
       <c r="K35" t="n">
         <v>300</v>
@@ -1894,31 +1894,31 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9895338483409106</v>
+        <v>0.9895338483409108</v>
       </c>
       <c r="C36" t="n">
         <v>16.90000000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>192.7985668044851</v>
+        <v>192.798566804526</v>
       </c>
       <c r="E36" t="n">
-        <v>16.85165837309598</v>
+        <v>16.85165840799857</v>
       </c>
       <c r="F36" t="n">
-        <v>16.84102386771804</v>
+        <v>16.8410236333741</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01063450537793616</v>
+        <v>0.01063477462447187</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0871889125992046</v>
+        <v>0.0871890172379987</v>
       </c>
       <c r="I36" t="n">
-        <v>308.4777068871762</v>
+        <v>308.4777068872415</v>
       </c>
       <c r="J36" t="n">
-        <v>0.1245639952274872</v>
+        <v>0.1245640575614368</v>
       </c>
       <c r="K36" t="n">
         <v>300</v>
@@ -1935,31 +1935,31 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9865147083627424</v>
+        <v>0.9865147083627427</v>
       </c>
       <c r="C37" t="n">
         <v>21.90000000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>192.8160713979527</v>
+        <v>192.8160713979239</v>
       </c>
       <c r="E37" t="n">
-        <v>21.98653541413592</v>
+        <v>21.98653540027071</v>
       </c>
       <c r="F37" t="n">
-        <v>21.97971473642145</v>
+        <v>21.9797148253327</v>
       </c>
       <c r="G37" t="n">
-        <v>0.006820677714469077</v>
+        <v>0.006820574938010748</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1034621656765661</v>
+        <v>0.1034621006071087</v>
       </c>
       <c r="I37" t="n">
-        <v>308.5057142367244</v>
+        <v>308.5057142366782</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1473280564366166</v>
+        <v>0.1473279797181074</v>
       </c>
       <c r="K37" t="n">
         <v>300</v>
@@ -1976,31 +1976,31 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9806205367592169</v>
+        <v>0.9806205367592173</v>
       </c>
       <c r="C38" t="n">
         <v>26.90000000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>192.8011070668985</v>
+        <v>192.8011070669112</v>
       </c>
       <c r="E38" t="n">
-        <v>27.68468228837362</v>
+        <v>27.68468228838994</v>
       </c>
       <c r="F38" t="n">
-        <v>27.69131653534462</v>
+        <v>27.69131653527204</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.006634246970997387</v>
+        <v>-0.006634246882098727</v>
       </c>
       <c r="H38" t="n">
-        <v>0.1344394264658936</v>
+        <v>0.1344394265392305</v>
       </c>
       <c r="I38" t="n">
-        <v>308.4817713070376</v>
+        <v>308.4817713070579</v>
       </c>
       <c r="J38" t="n">
-        <v>0.1818064947840203</v>
+        <v>0.1818064948406675</v>
       </c>
       <c r="K38" t="n">
         <v>300</v>
@@ -2017,31 +2017,31 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9718030902967904</v>
+        <v>0.9718030902967913</v>
       </c>
       <c r="C39" t="n">
         <v>31.90000000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>192.7949365637868</v>
+        <v>192.7949365637265</v>
       </c>
       <c r="E39" t="n">
-        <v>32.52048869522115</v>
+        <v>32.52048880388123</v>
       </c>
       <c r="F39" t="n">
-        <v>32.51045461227639</v>
+        <v>32.51045391678341</v>
       </c>
       <c r="G39" t="n">
-        <v>0.01003408294476284</v>
+        <v>0.01003488709781253</v>
       </c>
       <c r="H39" t="n">
-        <v>0.1487511174839588</v>
+        <v>0.1487516894608498</v>
       </c>
       <c r="I39" t="n">
-        <v>308.471898502059</v>
+        <v>308.4718985019624</v>
       </c>
       <c r="J39" t="n">
-        <v>0.1972781613362167</v>
+        <v>0.1972787248182889</v>
       </c>
       <c r="K39" t="n">
         <v>300</v>
@@ -2058,31 +2058,31 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9589580989054929</v>
+        <v>0.9589580989054944</v>
       </c>
       <c r="C40" t="n">
         <v>36.90000000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>192.7887763941915</v>
+        <v>192.7887763941272</v>
       </c>
       <c r="E40" t="n">
-        <v>37.56004859616028</v>
+        <v>37.56004858039898</v>
       </c>
       <c r="F40" t="n">
-        <v>37.56141305026267</v>
+        <v>37.56141312422948</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.001364454102385345</v>
+        <v>-0.001364543830505404</v>
       </c>
       <c r="H40" t="n">
-        <v>0.2105905020859649</v>
+        <v>0.2105904584952112</v>
       </c>
       <c r="I40" t="n">
-        <v>308.4620422307064</v>
+        <v>308.4620422306036</v>
       </c>
       <c r="J40" t="n">
-        <v>0.2839189925554755</v>
+        <v>0.2839189837894309</v>
       </c>
       <c r="K40" t="n">
         <v>300</v>
@@ -2099,31 +2099,31 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.941326341868188</v>
+        <v>0.9413263418681885</v>
       </c>
       <c r="C41" t="n">
         <v>41.90000000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>192.7928595374188</v>
+        <v>192.7928595374237</v>
       </c>
       <c r="E41" t="n">
-        <v>42.37124780682806</v>
+        <v>42.37124796752891</v>
       </c>
       <c r="F41" t="n">
-        <v>42.39430797998489</v>
+        <v>42.39430697386551</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.02306017315682567</v>
+        <v>-0.02305900633660256</v>
       </c>
       <c r="H41" t="n">
-        <v>0.2202058322398605</v>
+        <v>0.2202058511467538</v>
       </c>
       <c r="I41" t="n">
-        <v>308.4685752598701</v>
+        <v>308.4685752598779</v>
       </c>
       <c r="J41" t="n">
-        <v>0.3056872157009582</v>
+        <v>0.3056868405885166</v>
       </c>
       <c r="K41" t="n">
         <v>300</v>
@@ -2140,31 +2140,31 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9106308327383851</v>
+        <v>0.9106308327383885</v>
       </c>
       <c r="C42" t="n">
         <v>46.90000000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>192.6317215333397</v>
+        <v>192.6317215334049</v>
       </c>
       <c r="E42" t="n">
-        <v>47.69110210247895</v>
+        <v>47.69110210250064</v>
       </c>
       <c r="F42" t="n">
-        <v>47.70556891856589</v>
+        <v>47.70556891833386</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.01446681608694423</v>
+        <v>-0.01446681583321833</v>
       </c>
       <c r="H42" t="n">
-        <v>0.318216362052102</v>
+        <v>0.3182163622231557</v>
       </c>
       <c r="I42" t="n">
-        <v>308.2107544533434</v>
+        <v>308.2107544534479</v>
       </c>
       <c r="J42" t="n">
-        <v>0.4112705768539209</v>
+        <v>0.4112705768842168</v>
       </c>
       <c r="K42" t="n">
         <v>300</v>
@@ -2181,31 +2181,31 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.86271782619501</v>
+        <v>0.8627178261950131</v>
       </c>
       <c r="C43" t="n">
         <v>51.90000000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>192.785414753438</v>
+        <v>192.785414753484</v>
       </c>
       <c r="E43" t="n">
-        <v>53.3448275988521</v>
+        <v>53.34482759762086</v>
       </c>
       <c r="F43" t="n">
-        <v>53.26584815141521</v>
+        <v>53.26584815899618</v>
       </c>
       <c r="G43" t="n">
-        <v>0.07897944743688486</v>
+        <v>0.07897943862468469</v>
       </c>
       <c r="H43" t="n">
-        <v>0.4941496261904427</v>
+        <v>0.4941496258636928</v>
       </c>
       <c r="I43" t="n">
-        <v>308.4566636055009</v>
+        <v>308.4566636055744</v>
       </c>
       <c r="J43" t="n">
-        <v>0.642607649495787</v>
+        <v>0.6426076498558343</v>
       </c>
       <c r="K43" t="n">
         <v>300</v>
@@ -2222,31 +2222,31 @@
         <v>0</v>
       </c>
       <c r="B44" t="n">
-        <v>0.8708195109094883</v>
+        <v>0.8708195109094919</v>
       </c>
       <c r="C44" t="n">
         <v>-48.09999999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>259.6285796664686</v>
+        <v>259.628579666655</v>
       </c>
       <c r="E44" t="n">
-        <v>-47.88645738440843</v>
+        <v>-47.88645737766014</v>
       </c>
       <c r="F44" t="n">
-        <v>-47.9073647094981</v>
+        <v>-47.90736471173184</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02090732508967517</v>
+        <v>0.02090733407169114</v>
       </c>
       <c r="H44" t="n">
-        <v>0.5881349324320059</v>
+        <v>0.588134933937721</v>
       </c>
       <c r="I44" t="n">
-        <v>415.4057274663498</v>
+        <v>415.405727466648</v>
       </c>
       <c r="J44" t="n">
-        <v>0.6915298194629149</v>
+        <v>0.6915298242905799</v>
       </c>
       <c r="K44" t="n">
         <v>450</v>
@@ -2263,31 +2263,31 @@
         <v>1</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9112877202352648</v>
+        <v>0.9112877202352647</v>
       </c>
       <c r="C45" t="n">
         <v>-43.09999999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>259.6814197389707</v>
+        <v>259.6814197389666</v>
       </c>
       <c r="E45" t="n">
-        <v>-43.13014618263669</v>
+        <v>-43.13014619458875</v>
       </c>
       <c r="F45" t="n">
-        <v>-43.15829566121054</v>
+        <v>-43.15829565740585</v>
       </c>
       <c r="G45" t="n">
-        <v>0.02814947857386301</v>
+        <v>0.02814946281710616</v>
       </c>
       <c r="H45" t="n">
-        <v>0.3498269835724218</v>
+        <v>0.3498269847600962</v>
       </c>
       <c r="I45" t="n">
-        <v>415.4902715823531</v>
+        <v>415.4902715823465</v>
       </c>
       <c r="J45" t="n">
-        <v>0.4531504534064213</v>
+        <v>0.4531504495810312</v>
       </c>
       <c r="K45" t="n">
         <v>450</v>
@@ -2304,31 +2304,31 @@
         <v>2</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9433395580939329</v>
+        <v>0.9433395580939353</v>
       </c>
       <c r="C46" t="n">
         <v>-38.09999999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>259.7233909206004</v>
+        <v>259.7233909205191</v>
       </c>
       <c r="E46" t="n">
-        <v>-37.64424413415732</v>
+        <v>-37.6442441355489</v>
       </c>
       <c r="F46" t="n">
-        <v>-37.75910634568917</v>
+        <v>-37.75910634521048</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1148622115318557</v>
+        <v>0.1148622096615699</v>
       </c>
       <c r="H46" t="n">
-        <v>0.3638458085872138</v>
+        <v>0.3638458080313756</v>
       </c>
       <c r="I46" t="n">
-        <v>415.5574254729607</v>
+        <v>415.5574254728306</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4500024565741058</v>
+        <v>0.4500024555038806</v>
       </c>
       <c r="K46" t="n">
         <v>450</v>
@@ -2345,31 +2345,31 @@
         <v>3</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9595929891839925</v>
+        <v>0.9595929891839926</v>
       </c>
       <c r="C47" t="n">
         <v>-33.09999999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>259.726056748929</v>
+        <v>259.7260567488885</v>
       </c>
       <c r="E47" t="n">
-        <v>-32.99326253786962</v>
+        <v>-32.99326114481399</v>
       </c>
       <c r="F47" t="n">
-        <v>-33.05534743465702</v>
+        <v>-33.05534790511612</v>
       </c>
       <c r="G47" t="n">
-        <v>0.06208489678740333</v>
+        <v>0.0620867603021272</v>
       </c>
       <c r="H47" t="n">
-        <v>0.2707107623484071</v>
+        <v>0.270710223451597</v>
       </c>
       <c r="I47" t="n">
-        <v>415.5616907982863</v>
+        <v>415.5616907982216</v>
       </c>
       <c r="J47" t="n">
-        <v>0.3466167654169324</v>
+        <v>0.3466163648562661</v>
       </c>
       <c r="K47" t="n">
         <v>450</v>
@@ -2386,31 +2386,31 @@
         <v>4</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9715303067953508</v>
+        <v>0.9715303067953525</v>
       </c>
       <c r="C48" t="n">
         <v>-28.09999999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>259.710662176483</v>
+        <v>259.7106621764841</v>
       </c>
       <c r="E48" t="n">
-        <v>-28.47506164804154</v>
+        <v>-28.47505842448472</v>
       </c>
       <c r="F48" t="n">
-        <v>-28.51472144094508</v>
+        <v>-28.51472253643639</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0396597929035367</v>
+        <v>0.03966411195167137</v>
       </c>
       <c r="H48" t="n">
-        <v>0.1919901593545197</v>
+        <v>0.1919888668242721</v>
       </c>
       <c r="I48" t="n">
-        <v>415.5370594823727</v>
+        <v>415.5370594823746</v>
       </c>
       <c r="J48" t="n">
-        <v>0.2504145318510144</v>
+        <v>0.2504142244408673</v>
       </c>
       <c r="K48" t="n">
         <v>450</v>
@@ -2433,25 +2433,25 @@
         <v>-23.09999999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>259.6718711486168</v>
+        <v>259.6718711485356</v>
       </c>
       <c r="E49" t="n">
-        <v>-22.9219403989346</v>
+        <v>-22.92193910509926</v>
       </c>
       <c r="F49" t="n">
-        <v>-22.99373114396941</v>
+        <v>-22.99373158938047</v>
       </c>
       <c r="G49" t="n">
-        <v>0.07179074503480756</v>
+        <v>0.07179248428120845</v>
       </c>
       <c r="H49" t="n">
-        <v>0.2806653525184894</v>
+        <v>0.2806644699928001</v>
       </c>
       <c r="I49" t="n">
-        <v>415.4749938377871</v>
+        <v>415.4749938376569</v>
       </c>
       <c r="J49" t="n">
-        <v>0.368943602250803</v>
+        <v>0.3689429596833544</v>
       </c>
       <c r="K49" t="n">
         <v>450</v>
@@ -2468,31 +2468,31 @@
         <v>6</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9825690553165839</v>
+        <v>0.9825690553165844</v>
       </c>
       <c r="C50" t="n">
         <v>-18.09999999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>259.6389696853961</v>
+        <v>259.6389696853851</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.08755687105555</v>
+        <v>-18.08755631783844</v>
       </c>
       <c r="F50" t="n">
-        <v>-18.15836280774548</v>
+        <v>-18.15836302628615</v>
       </c>
       <c r="G50" t="n">
-        <v>0.07080593668993138</v>
+        <v>0.0708067084477058</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2212852690303716</v>
+        <v>0.2212847820404698</v>
       </c>
       <c r="I50" t="n">
-        <v>415.4223514966339</v>
+        <v>415.4223514966161</v>
       </c>
       <c r="J50" t="n">
-        <v>0.2683320591922065</v>
+        <v>0.2683317730233133</v>
       </c>
       <c r="K50" t="n">
         <v>450</v>
@@ -2509,31 +2509,31 @@
         <v>7</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9812028134277795</v>
+        <v>0.9812028134277796</v>
       </c>
       <c r="C51" t="n">
         <v>-13.1</v>
       </c>
       <c r="D51" t="n">
-        <v>258.2363713636846</v>
+        <v>258.2363713636274</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.25164508719175</v>
+        <v>-13.25164502296281</v>
       </c>
       <c r="F51" t="n">
-        <v>-13.41383581791434</v>
+        <v>-13.41383585144951</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1621907307225877</v>
+        <v>0.1621908284866962</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2195345843259452</v>
+        <v>0.2195346038799184</v>
       </c>
       <c r="I51" t="n">
-        <v>413.1781941818954</v>
+        <v>413.1781941818039</v>
       </c>
       <c r="J51" t="n">
-        <v>0.3039034528153982</v>
+        <v>0.303903456339663</v>
       </c>
       <c r="K51" t="n">
         <v>450</v>
@@ -2550,31 +2550,31 @@
         <v>8</v>
       </c>
       <c r="B52" t="n">
-        <v>0.9777241999471913</v>
+        <v>0.9777241999471914</v>
       </c>
       <c r="C52" t="n">
         <v>-8.099999999999994</v>
       </c>
       <c r="D52" t="n">
-        <v>256.6980599031992</v>
+        <v>256.6980599032307</v>
       </c>
       <c r="E52" t="n">
-        <v>-8.062944339908061</v>
+        <v>-8.062943893172623</v>
       </c>
       <c r="F52" t="n">
-        <v>-8.132070046150696</v>
+        <v>-8.132070403520608</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06912570624263581</v>
+        <v>0.06912651034798496</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1698897627136366</v>
+        <v>0.1698904456467334</v>
       </c>
       <c r="I52" t="n">
-        <v>410.7168958451187</v>
+        <v>410.7168958451691</v>
       </c>
       <c r="J52" t="n">
-        <v>0.250668272776875</v>
+        <v>0.2506687294787262</v>
       </c>
       <c r="K52" t="n">
         <v>450</v>
@@ -2591,31 +2591,31 @@
         <v>9</v>
       </c>
       <c r="B53" t="n">
-        <v>0.9563383733250067</v>
+        <v>0.9563383733250068</v>
       </c>
       <c r="C53" t="n">
         <v>-3.099999999999994</v>
       </c>
       <c r="D53" t="n">
-        <v>257.0671789418763</v>
+        <v>257.0671789418756</v>
       </c>
       <c r="E53" t="n">
-        <v>-3.684110419402918</v>
+        <v>-3.684110414316786</v>
       </c>
       <c r="F53" t="n">
-        <v>-3.855729005911105</v>
+        <v>-3.855729007271213</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1716185865081857</v>
+        <v>0.1716185929544264</v>
       </c>
       <c r="H53" t="n">
-        <v>0.2759384981566931</v>
+        <v>0.2759385025089243</v>
       </c>
       <c r="I53" t="n">
-        <v>411.307486307002</v>
+        <v>411.3074863070009</v>
       </c>
       <c r="J53" t="n">
-        <v>0.3636378020719913</v>
+        <v>0.3636378028816114</v>
       </c>
       <c r="K53" t="n">
         <v>450</v>
@@ -2632,31 +2632,31 @@
         <v>10</v>
       </c>
       <c r="B54" t="n">
-        <v>0.9588484734061399</v>
+        <v>0.95884847340614</v>
       </c>
       <c r="C54" t="n">
         <v>1.900000000000006</v>
       </c>
       <c r="D54" t="n">
-        <v>259.6001938591614</v>
+        <v>259.6001938591559</v>
       </c>
       <c r="E54" t="n">
-        <v>2.716344052342949</v>
+        <v>2.716344009876064</v>
       </c>
       <c r="F54" t="n">
-        <v>2.717366122088679</v>
+        <v>2.717366136845475</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.001022069745729611</v>
+        <v>-0.001022126969411078</v>
       </c>
       <c r="H54" t="n">
-        <v>0.6948784990161233</v>
+        <v>0.6948784556189956</v>
       </c>
       <c r="I54" t="n">
-        <v>415.3603101746584</v>
+        <v>415.3603101746494</v>
       </c>
       <c r="J54" t="n">
-        <v>0.8480331695202686</v>
+        <v>0.8480331702690695</v>
       </c>
       <c r="K54" t="n">
         <v>450</v>
@@ -2673,31 +2673,31 @@
         <v>11</v>
       </c>
       <c r="B55" t="n">
-        <v>0.9746678128982353</v>
+        <v>0.9746678128982355</v>
       </c>
       <c r="C55" t="n">
         <v>6.900000000000006</v>
       </c>
       <c r="D55" t="n">
-        <v>259.6066218849569</v>
+        <v>259.6066218849787</v>
       </c>
       <c r="E55" t="n">
-        <v>6.601177101247247</v>
+        <v>6.601176861100266</v>
       </c>
       <c r="F55" t="n">
-        <v>6.672861391307797</v>
+        <v>6.672861462793517</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.07168429006055063</v>
+        <v>-0.07168460169325092</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1555331139756522</v>
+        <v>0.1555334018546554</v>
       </c>
       <c r="I55" t="n">
-        <v>415.3705950159311</v>
+        <v>415.3705950159659</v>
       </c>
       <c r="J55" t="n">
-        <v>0.2085456881908335</v>
+        <v>0.2085458256893335</v>
       </c>
       <c r="K55" t="n">
         <v>450</v>
@@ -2714,31 +2714,31 @@
         <v>12</v>
       </c>
       <c r="B56" t="n">
-        <v>0.9883893317408906</v>
+        <v>0.9883893317408907</v>
       </c>
       <c r="C56" t="n">
         <v>11.90000000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>259.5954621748876</v>
+        <v>259.5954621748908</v>
       </c>
       <c r="E56" t="n">
-        <v>12.03966581107729</v>
+        <v>12.03966549088275</v>
       </c>
       <c r="F56" t="n">
-        <v>12.1118141344357</v>
+        <v>12.11181423467776</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.07214832335841355</v>
+        <v>-0.07214874379500526</v>
       </c>
       <c r="H56" t="n">
-        <v>0.1115168075249175</v>
+        <v>0.1115171853137827</v>
       </c>
       <c r="I56" t="n">
-        <v>415.3527394798202</v>
+        <v>415.3527394798253</v>
       </c>
       <c r="J56" t="n">
-        <v>0.1771439665670328</v>
+        <v>0.1771441242475963</v>
       </c>
       <c r="K56" t="n">
         <v>450</v>
@@ -2755,31 +2755,31 @@
         <v>13</v>
       </c>
       <c r="B57" t="n">
-        <v>0.9884503603571464</v>
+        <v>0.9884503603571465</v>
       </c>
       <c r="C57" t="n">
         <v>16.90000000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>259.5699896466121</v>
+        <v>259.56998964652</v>
       </c>
       <c r="E57" t="n">
-        <v>16.77673661754775</v>
+        <v>16.77673730129906</v>
       </c>
       <c r="F57" t="n">
-        <v>16.84102386771804</v>
+        <v>16.8410236333741</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.06428725017029085</v>
+        <v>-0.06428633207503812</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1052289628310132</v>
+        <v>0.1052284204922684</v>
       </c>
       <c r="I57" t="n">
-        <v>415.3119834345793</v>
+        <v>415.3119834344319</v>
       </c>
       <c r="J57" t="n">
-        <v>0.1617998410142879</v>
+        <v>0.1617994443708408</v>
       </c>
       <c r="K57" t="n">
         <v>450</v>
@@ -2796,31 +2796,31 @@
         <v>14</v>
       </c>
       <c r="B58" t="n">
-        <v>0.9846663357655699</v>
+        <v>0.9846663357655702</v>
       </c>
       <c r="C58" t="n">
         <v>21.90000000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>259.5782304101107</v>
+        <v>259.5782304101109</v>
       </c>
       <c r="E58" t="n">
-        <v>21.93533083228127</v>
+        <v>21.93533057414168</v>
       </c>
       <c r="F58" t="n">
-        <v>21.97971473642145</v>
+        <v>21.9797148253327</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.04438390414018093</v>
+        <v>-0.04438425119102588</v>
       </c>
       <c r="H58" t="n">
-        <v>0.1373615191636856</v>
+        <v>0.1373617241239075</v>
       </c>
       <c r="I58" t="n">
-        <v>415.3251686561772</v>
+        <v>415.3251686561775</v>
       </c>
       <c r="J58" t="n">
-        <v>0.1978180615095838</v>
+        <v>0.1978182269088065</v>
       </c>
       <c r="K58" t="n">
         <v>450</v>
@@ -2837,31 +2837,31 @@
         <v>15</v>
       </c>
       <c r="B59" t="n">
-        <v>0.978021765211373</v>
+        <v>0.9780217652113739</v>
       </c>
       <c r="C59" t="n">
         <v>26.90000000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>259.5888339482144</v>
+        <v>259.5888339481701</v>
       </c>
       <c r="E59" t="n">
-        <v>27.67101007553762</v>
+        <v>27.67101007577751</v>
       </c>
       <c r="F59" t="n">
-        <v>27.69131653534462</v>
+        <v>27.69131653527204</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.02030645980699942</v>
+        <v>-0.02030645949453174</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456520756335261</v>
+        <v>0.1456520754539102</v>
       </c>
       <c r="I59" t="n">
-        <v>415.342134317143</v>
+        <v>415.3421343170722</v>
       </c>
       <c r="J59" t="n">
-        <v>0.2032174950663582</v>
+        <v>0.2032174949371635</v>
       </c>
       <c r="K59" t="n">
         <v>450</v>
@@ -2878,31 +2878,31 @@
         <v>16</v>
       </c>
       <c r="B60" t="n">
-        <v>0.968345782567954</v>
+        <v>0.9683457825679561</v>
       </c>
       <c r="C60" t="n">
         <v>31.90000000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>259.5902079109964</v>
+        <v>259.5902079109543</v>
       </c>
       <c r="E60" t="n">
-        <v>32.4170261656181</v>
+        <v>32.41702821090394</v>
       </c>
       <c r="F60" t="n">
-        <v>32.51045461227639</v>
+        <v>32.51045391678341</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.09342844665829339</v>
+        <v>-0.09342570587947445</v>
       </c>
       <c r="H60" t="n">
-        <v>0.2018554075076365</v>
+        <v>0.201853251142644</v>
       </c>
       <c r="I60" t="n">
-        <v>415.3443326575942</v>
+        <v>415.3443326575269</v>
       </c>
       <c r="J60" t="n">
-        <v>0.2746730819182517</v>
+        <v>0.2746715465963305</v>
       </c>
       <c r="K60" t="n">
         <v>450</v>
@@ -2919,31 +2919,31 @@
         <v>17</v>
       </c>
       <c r="B61" t="n">
-        <v>0.9532603045007808</v>
+        <v>0.9532603045007804</v>
       </c>
       <c r="C61" t="n">
         <v>36.90000000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>259.610100486685</v>
+        <v>259.6101004867994</v>
       </c>
       <c r="E61" t="n">
-        <v>37.51966238822769</v>
+        <v>37.51966216072535</v>
       </c>
       <c r="F61" t="n">
-        <v>37.56141305026267</v>
+        <v>37.56141312422948</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.04175066203497195</v>
+        <v>-0.04175096350413472</v>
       </c>
       <c r="H61" t="n">
-        <v>0.2534629925599478</v>
+        <v>0.2534631338182515</v>
       </c>
       <c r="I61" t="n">
-        <v>415.3761607786959</v>
+        <v>415.3761607788791</v>
       </c>
       <c r="J61" t="n">
-        <v>0.322570709805</v>
+        <v>0.3225707736159982</v>
       </c>
       <c r="K61" t="n">
         <v>450</v>
@@ -2960,31 +2960,31 @@
         <v>18</v>
       </c>
       <c r="B62" t="n">
-        <v>0.9323087700812922</v>
+        <v>0.9323087700812962</v>
       </c>
       <c r="C62" t="n">
         <v>41.90000000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>259.554372831927</v>
+        <v>259.5543728319979</v>
       </c>
       <c r="E62" t="n">
-        <v>42.30570164597699</v>
+        <v>42.30570461321326</v>
       </c>
       <c r="F62" t="n">
-        <v>42.39430797998489</v>
+        <v>42.39430697386551</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.08860633400790227</v>
+        <v>-0.08860236065225457</v>
       </c>
       <c r="H62" t="n">
-        <v>0.2779855254783384</v>
+        <v>0.2779845804023472</v>
       </c>
       <c r="I62" t="n">
-        <v>415.2869965310832</v>
+        <v>415.2869965311966</v>
       </c>
       <c r="J62" t="n">
-        <v>0.3488413131255749</v>
+        <v>0.3488406534716688</v>
       </c>
       <c r="K62" t="n">
         <v>450</v>
@@ -3001,31 +3001,31 @@
         <v>19</v>
       </c>
       <c r="B63" t="n">
-        <v>0.8949815444014055</v>
+        <v>0.8949815444014061</v>
       </c>
       <c r="C63" t="n">
         <v>46.90000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>259.5753604671698</v>
+        <v>259.5753604670906</v>
       </c>
       <c r="E63" t="n">
-        <v>47.63741067002456</v>
+        <v>47.63741067060734</v>
       </c>
       <c r="F63" t="n">
-        <v>47.70556891856589</v>
+        <v>47.70556891833386</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.06815824854133203</v>
+        <v>-0.06815824772651903</v>
       </c>
       <c r="H63" t="n">
-        <v>0.4058771010141444</v>
+        <v>0.4058771007449266</v>
       </c>
       <c r="I63" t="n">
-        <v>415.3205767474718</v>
+        <v>415.320576747345</v>
       </c>
       <c r="J63" t="n">
-        <v>0.5707993747601285</v>
+        <v>0.5707993746500666</v>
       </c>
       <c r="K63" t="n">
         <v>450</v>
@@ -3042,31 +3042,31 @@
         <v>20</v>
       </c>
       <c r="B64" t="n">
-        <v>0.833800777043493</v>
+        <v>0.8338007770434952</v>
       </c>
       <c r="C64" t="n">
         <v>51.90000000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>259.5111338333177</v>
+        <v>259.5111338333679</v>
       </c>
       <c r="E64" t="n">
-        <v>53.00974358790369</v>
+        <v>53.0097435667132</v>
       </c>
       <c r="F64" t="n">
-        <v>53.26584815141521</v>
+        <v>53.26584815899618</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2561045635115253</v>
+        <v>-0.2561045922829768</v>
       </c>
       <c r="H64" t="n">
-        <v>0.5225842401166759</v>
+        <v>0.5225842459447807</v>
       </c>
       <c r="I64" t="n">
-        <v>415.2178141333084</v>
+        <v>415.2178141333887</v>
       </c>
       <c r="J64" t="n">
-        <v>0.7301484535431221</v>
+        <v>0.7301484592848416</v>
       </c>
       <c r="K64" t="n">
         <v>450</v>
